--- a/用例数据/深A/债券分销登记/测试结果.xlsx
+++ b/用例数据/深A/债券分销登记/测试结果.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\深A\债券分销登记\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25860" windowHeight="12215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="302">
   <si>
     <t>EXCHID</t>
   </si>
@@ -733,9 +738,6 @@
     <t>005_003_002</t>
   </si>
   <si>
-    <t>20220321163924</t>
-  </si>
-  <si>
     <t>ZQKZ</t>
   </si>
   <si>
@@ -881,19 +883,58 @@
   </si>
   <si>
     <t>30200124</t>
+  </si>
+  <si>
+    <t>OTHERFEE4</t>
+  </si>
+  <si>
+    <t>30052692</t>
+  </si>
+  <si>
+    <t>20221007203502</t>
+  </si>
+  <si>
+    <t>99990</t>
+  </si>
+  <si>
+    <t>20221007000000</t>
+  </si>
+  <si>
+    <t>1000786743.280</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>99998</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>0.00000000</t>
+  </si>
+  <si>
+    <t>000006907636</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>30052693</t>
+  </si>
+  <si>
+    <t>10679000.000</t>
+  </si>
+  <si>
+    <t>000006907637</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,345 +943,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1248,313 +966,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1841,21 +1272,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:86">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +1546,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:86">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -2375,7 +1806,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:86">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -2635,113 +2066,112 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="7.66666666666667" customWidth="1"/>
-    <col min="3" max="4" width="14.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="14.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="11.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="7.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="20.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="20.875" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="14.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="16.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="10.7777777777778" customWidth="1"/>
-    <col min="16" max="16" width="11.8888888888889" customWidth="1"/>
-    <col min="17" max="18" width="15.2222222222222" customWidth="1"/>
-    <col min="19" max="19" width="14.1111111111111" customWidth="1"/>
-    <col min="20" max="20" width="17.5555555555556" customWidth="1"/>
-    <col min="21" max="21" width="14.1111111111111" customWidth="1"/>
-    <col min="22" max="22" width="16.4444444444444" customWidth="1"/>
-    <col min="23" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="8.66666666666667" customWidth="1"/>
-    <col min="25" max="25" width="10.7777777777778" customWidth="1"/>
-    <col min="26" max="26" width="7.66666666666667" customWidth="1"/>
-    <col min="27" max="27" width="17.5555555555556" customWidth="1"/>
-    <col min="28" max="28" width="9.66666666666667" customWidth="1"/>
-    <col min="29" max="29" width="15.2222222222222" customWidth="1"/>
-    <col min="30" max="30" width="10.7777777777778" customWidth="1"/>
-    <col min="31" max="31" width="15.2222222222222" customWidth="1"/>
+    <col min="12" max="13" width="14.125" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="17" max="18" width="15.25" customWidth="1"/>
+    <col min="19" max="19" width="14.125" customWidth="1"/>
+    <col min="20" max="20" width="17.5" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="16.5" customWidth="1"/>
+    <col min="23" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="8.625" customWidth="1"/>
+    <col min="25" max="25" width="10.75" customWidth="1"/>
+    <col min="26" max="26" width="7.625" customWidth="1"/>
+    <col min="27" max="27" width="17.5" customWidth="1"/>
+    <col min="28" max="28" width="9.625" customWidth="1"/>
+    <col min="29" max="29" width="15.25" customWidth="1"/>
+    <col min="30" max="30" width="10.75" customWidth="1"/>
+    <col min="31" max="31" width="15.25" customWidth="1"/>
     <col min="32" max="32" width="22" customWidth="1"/>
-    <col min="33" max="33" width="11.8888888888889" customWidth="1"/>
-    <col min="34" max="34" width="20.8888888888889" customWidth="1"/>
-    <col min="35" max="35" width="24.2222222222222" customWidth="1"/>
-    <col min="36" max="36" width="23.1111111111111" customWidth="1"/>
+    <col min="33" max="33" width="11.875" customWidth="1"/>
+    <col min="34" max="34" width="20.875" customWidth="1"/>
+    <col min="35" max="35" width="24.25" customWidth="1"/>
+    <col min="36" max="36" width="23.125" customWidth="1"/>
     <col min="37" max="38" width="13" customWidth="1"/>
-    <col min="39" max="40" width="14.1111111111111" customWidth="1"/>
-    <col min="41" max="42" width="15.2222222222222" customWidth="1"/>
+    <col min="39" max="40" width="14.125" customWidth="1"/>
+    <col min="41" max="42" width="15.25" customWidth="1"/>
     <col min="43" max="44" width="13" customWidth="1"/>
-    <col min="45" max="45" width="14.1111111111111" customWidth="1"/>
-    <col min="46" max="46" width="16.4444444444444" customWidth="1"/>
-    <col min="47" max="47" width="23.1111111111111" customWidth="1"/>
-    <col min="48" max="48" width="19.7777777777778" customWidth="1"/>
-    <col min="49" max="49" width="23.1111111111111" customWidth="1"/>
-    <col min="50" max="50" width="15.2222222222222" customWidth="1"/>
-    <col min="51" max="51" width="18.6666666666667" customWidth="1"/>
-    <col min="52" max="52" width="17.5555555555556" customWidth="1"/>
-    <col min="53" max="54" width="16.4444444444444" customWidth="1"/>
-    <col min="55" max="56" width="17.5555555555556" customWidth="1"/>
-    <col min="57" max="57" width="16.4444444444444" customWidth="1"/>
-    <col min="58" max="58" width="17.5555555555556" customWidth="1"/>
-    <col min="59" max="59" width="18.6666666666667" customWidth="1"/>
-    <col min="60" max="60" width="25.4444444444444" customWidth="1"/>
-    <col min="61" max="61" width="27.6666666666667" customWidth="1"/>
-    <col min="62" max="62" width="20.8888888888889" customWidth="1"/>
-    <col min="63" max="63" width="16.4444444444444" customWidth="1"/>
-    <col min="64" max="64" width="23.1111111111111" customWidth="1"/>
-    <col min="65" max="65" width="9.66666666666667" customWidth="1"/>
-    <col min="66" max="66" width="23.1111111111111" customWidth="1"/>
-    <col min="67" max="67" width="18.6666666666667" customWidth="1"/>
-    <col min="68" max="68" width="24.2222222222222" customWidth="1"/>
-    <col min="69" max="69" width="19.7777777777778" customWidth="1"/>
-    <col min="70" max="70" width="15.2222222222222" customWidth="1"/>
-    <col min="71" max="71" width="16.4444444444444" customWidth="1"/>
-    <col min="72" max="72" width="18.6666666666667" customWidth="1"/>
-    <col min="73" max="73" width="19.7777777777778" customWidth="1"/>
-    <col min="74" max="74" width="26.5555555555556" customWidth="1"/>
-    <col min="75" max="75" width="14.1111111111111" customWidth="1"/>
+    <col min="45" max="45" width="14.125" customWidth="1"/>
+    <col min="46" max="46" width="16.5" customWidth="1"/>
+    <col min="47" max="47" width="23.125" customWidth="1"/>
+    <col min="48" max="48" width="19.75" customWidth="1"/>
+    <col min="49" max="49" width="23.125" customWidth="1"/>
+    <col min="50" max="50" width="15.25" customWidth="1"/>
+    <col min="51" max="51" width="18.625" customWidth="1"/>
+    <col min="52" max="52" width="17.5" customWidth="1"/>
+    <col min="53" max="54" width="16.5" customWidth="1"/>
+    <col min="55" max="56" width="17.5" customWidth="1"/>
+    <col min="57" max="57" width="16.5" customWidth="1"/>
+    <col min="58" max="58" width="17.5" customWidth="1"/>
+    <col min="59" max="59" width="18.625" customWidth="1"/>
+    <col min="60" max="60" width="25.5" customWidth="1"/>
+    <col min="61" max="61" width="27.625" customWidth="1"/>
+    <col min="62" max="62" width="20.875" customWidth="1"/>
+    <col min="63" max="63" width="16.5" customWidth="1"/>
+    <col min="64" max="64" width="23.125" customWidth="1"/>
+    <col min="65" max="65" width="9.625" customWidth="1"/>
+    <col min="66" max="66" width="23.125" customWidth="1"/>
+    <col min="67" max="67" width="18.625" customWidth="1"/>
+    <col min="68" max="68" width="24.25" customWidth="1"/>
+    <col min="69" max="69" width="19.75" customWidth="1"/>
+    <col min="70" max="70" width="15.25" customWidth="1"/>
+    <col min="71" max="71" width="16.5" customWidth="1"/>
+    <col min="72" max="72" width="18.625" customWidth="1"/>
+    <col min="73" max="73" width="19.75" customWidth="1"/>
+    <col min="74" max="74" width="26.5" customWidth="1"/>
+    <col min="75" max="75" width="14.125" customWidth="1"/>
     <col min="76" max="76" width="13" customWidth="1"/>
     <col min="77" max="77" width="22" customWidth="1"/>
-    <col min="78" max="78" width="17.5555555555556" customWidth="1"/>
-    <col min="79" max="79" width="20.8888888888889" customWidth="1"/>
+    <col min="78" max="78" width="17.5" customWidth="1"/>
+    <col min="79" max="79" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:79">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -2980,7 +2410,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:79">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
@@ -3219,7 +2649,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:79">
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -3458,167 +2888,165 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:EH3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="5" width="16.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="9.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="10.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="7.66666666666667" customWidth="1"/>
-    <col min="15" max="15" width="9.66666666666667" customWidth="1"/>
-    <col min="16" max="16" width="8.66666666666667" customWidth="1"/>
-    <col min="17" max="17" width="10.7777777777778" customWidth="1"/>
-    <col min="18" max="18" width="8.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="7.66666666666667" customWidth="1"/>
-    <col min="21" max="21" width="10.7777777777778" customWidth="1"/>
-    <col min="22" max="22" width="9.66666666666667" customWidth="1"/>
-    <col min="23" max="24" width="12.8888888888889" customWidth="1"/>
-    <col min="25" max="25" width="14.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="9.66666666666667" customWidth="1"/>
-    <col min="27" max="27" width="11.7777777777778" customWidth="1"/>
-    <col min="28" max="28" width="8.66666666666667" customWidth="1"/>
-    <col min="29" max="29" width="9.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="23.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="10.7777777777778" customWidth="1"/>
-    <col min="32" max="32" width="15.2222222222222" customWidth="1"/>
-    <col min="33" max="34" width="14.1111111111111" customWidth="1"/>
-    <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.66666666666667" customWidth="1"/>
-    <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="14.1111111111111" customWidth="1"/>
-    <col min="41" max="41" width="11.8888888888889" customWidth="1"/>
-    <col min="42" max="44" width="9.66666666666667" customWidth="1"/>
-    <col min="45" max="45" width="14.1111111111111" customWidth="1"/>
-    <col min="46" max="46" width="9.66666666666667" customWidth="1"/>
-    <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.1111111111111" customWidth="1"/>
-    <col min="49" max="49" width="8.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="17.5555555555556" customWidth="1"/>
-    <col min="51" max="51" width="11.8888888888889" customWidth="1"/>
-    <col min="52" max="52" width="8.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="9.66666666666667" customWidth="1"/>
-    <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.4444444444444" customWidth="1"/>
-    <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.4444444444444" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="5.66666666666667" customWidth="1"/>
-    <col min="61" max="61" width="17.5555555555556" customWidth="1"/>
-    <col min="62" max="62" width="14.1111111111111" customWidth="1"/>
-    <col min="63" max="63" width="11.8888888888889" customWidth="1"/>
-    <col min="64" max="64" width="8.66666666666667" customWidth="1"/>
-    <col min="65" max="65" width="14.1111111111111" customWidth="1"/>
-    <col min="66" max="66" width="9.66666666666667" customWidth="1"/>
-    <col min="67" max="67" width="17.5555555555556" customWidth="1"/>
-    <col min="68" max="68" width="10.7777777777778" customWidth="1"/>
-    <col min="69" max="69" width="11.8888888888889" customWidth="1"/>
-    <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.8888888888889" customWidth="1"/>
-    <col min="72" max="72" width="15.2222222222222" customWidth="1"/>
-    <col min="73" max="73" width="11.8888888888889" customWidth="1"/>
-    <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5555555555556" customWidth="1"/>
-    <col min="76" max="76" width="20.8888888888889" customWidth="1"/>
-    <col min="77" max="77" width="16.4444444444444" customWidth="1"/>
-    <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.8888888888889" customWidth="1"/>
-    <col min="80" max="80" width="10.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="11.8888888888889" customWidth="1"/>
-    <col min="82" max="83" width="7.66666666666667" customWidth="1"/>
-    <col min="84" max="85" width="17.5555555555556" customWidth="1"/>
-    <col min="86" max="86" width="16.4444444444444" customWidth="1"/>
-    <col min="87" max="87" width="11.8888888888889" customWidth="1"/>
-    <col min="88" max="88" width="14.1111111111111" customWidth="1"/>
-    <col min="89" max="89" width="11.8888888888889" customWidth="1"/>
-    <col min="90" max="90" width="10.7777777777778" customWidth="1"/>
-    <col min="91" max="91" width="11.8888888888889" customWidth="1"/>
-    <col min="92" max="92" width="19.7777777777778" customWidth="1"/>
-    <col min="93" max="93" width="16.4444444444444" customWidth="1"/>
-    <col min="94" max="94" width="23.1111111111111" customWidth="1"/>
-    <col min="95" max="95" width="7.66666666666667" customWidth="1"/>
-    <col min="96" max="96" width="18.6666666666667" customWidth="1"/>
-    <col min="97" max="97" width="10.7777777777778" customWidth="1"/>
-    <col min="98" max="98" width="14.1111111111111" customWidth="1"/>
-    <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.4444444444444" customWidth="1"/>
-    <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.66666666666667" customWidth="1"/>
-    <col min="104" max="104" width="16.4444444444444" customWidth="1"/>
-    <col min="105" max="105" width="14.1111111111111" customWidth="1"/>
-    <col min="106" max="106" width="11.8888888888889" customWidth="1"/>
-    <col min="107" max="108" width="15.2222222222222" customWidth="1"/>
-    <col min="109" max="109" width="9.66666666666667" customWidth="1"/>
-    <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.66666666666667" customWidth="1"/>
-    <col min="112" max="112" width="15.2222222222222" customWidth="1"/>
-    <col min="113" max="113" width="17.5555555555556" customWidth="1"/>
-    <col min="114" max="114" width="9.66666666666667" customWidth="1"/>
-    <col min="115" max="115" width="19.7777777777778" customWidth="1"/>
-    <col min="116" max="116" width="16.4444444444444" customWidth="1"/>
-    <col min="117" max="117" width="20.8888888888889" customWidth="1"/>
-    <col min="118" max="118" width="24.2222222222222" customWidth="1"/>
-    <col min="119" max="119" width="16.4444444444444" customWidth="1"/>
-    <col min="120" max="120" width="17.5555555555556" customWidth="1"/>
-    <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.8888888888889" customWidth="1"/>
-    <col min="124" max="124" width="19.7777777777778" customWidth="1"/>
-    <col min="125" max="125" width="17.5555555555556" customWidth="1"/>
-    <col min="126" max="126" width="20.8888888888889" customWidth="1"/>
-    <col min="127" max="127" width="18.6666666666667" customWidth="1"/>
-    <col min="128" max="128" width="8.66666666666667" customWidth="1"/>
-    <col min="129" max="129" width="15.2222222222222" customWidth="1"/>
-    <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="14.1111111111111" customWidth="1"/>
-    <col min="132" max="132" width="10.7777777777778" customWidth="1"/>
-    <col min="133" max="133" width="11.8888888888889" customWidth="1"/>
-    <col min="134" max="134" width="15.2222222222222" customWidth="1"/>
-    <col min="135" max="135" width="16.4444444444444" customWidth="1"/>
-    <col min="136" max="136" width="14.1111111111111" customWidth="1"/>
-    <col min="137" max="137" width="17.5555555555556" customWidth="1"/>
-    <col min="138" max="138" width="14.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="14" width="9.625" customWidth="1"/>
+    <col min="15" max="15" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1"/>
+    <col min="17" max="17" width="8.625" customWidth="1"/>
+    <col min="18" max="18" width="6.625" customWidth="1"/>
+    <col min="19" max="19" width="7.625" customWidth="1"/>
+    <col min="20" max="20" width="10.75" customWidth="1"/>
+    <col min="21" max="21" width="9.625" customWidth="1"/>
+    <col min="22" max="23" width="12.875" customWidth="1"/>
+    <col min="24" max="24" width="14.125" customWidth="1"/>
+    <col min="25" max="25" width="9.625" customWidth="1"/>
+    <col min="26" max="26" width="11.75" customWidth="1"/>
+    <col min="27" max="27" width="8.625" customWidth="1"/>
+    <col min="28" max="28" width="9.625" customWidth="1"/>
+    <col min="29" max="29" width="23.125" customWidth="1"/>
+    <col min="30" max="30" width="10.75" customWidth="1"/>
+    <col min="31" max="31" width="15.25" customWidth="1"/>
+    <col min="32" max="33" width="14.125" customWidth="1"/>
+    <col min="34" max="35" width="13" customWidth="1"/>
+    <col min="36" max="36" width="9.625" customWidth="1"/>
+    <col min="37" max="37" width="13" customWidth="1"/>
+    <col min="38" max="38" width="10.75" customWidth="1"/>
+    <col min="39" max="39" width="14.125" customWidth="1"/>
+    <col min="40" max="40" width="11.875" customWidth="1"/>
+    <col min="41" max="43" width="9.625" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="9.625" customWidth="1"/>
+    <col min="46" max="46" width="13" customWidth="1"/>
+    <col min="47" max="47" width="14.125" customWidth="1"/>
+    <col min="48" max="48" width="8.625" customWidth="1"/>
+    <col min="49" max="49" width="17.5" customWidth="1"/>
+    <col min="50" max="50" width="11.875" customWidth="1"/>
+    <col min="51" max="51" width="8.625" customWidth="1"/>
+    <col min="52" max="52" width="9.625" customWidth="1"/>
+    <col min="53" max="53" width="13" customWidth="1"/>
+    <col min="54" max="54" width="16.5" customWidth="1"/>
+    <col min="55" max="56" width="13" customWidth="1"/>
+    <col min="57" max="57" width="16.5" customWidth="1"/>
+    <col min="58" max="58" width="15.25" customWidth="1"/>
+    <col min="59" max="59" width="5.625" customWidth="1"/>
+    <col min="60" max="60" width="17.5" customWidth="1"/>
+    <col min="61" max="61" width="14.125" customWidth="1"/>
+    <col min="62" max="62" width="11.875" customWidth="1"/>
+    <col min="63" max="63" width="8.625" customWidth="1"/>
+    <col min="64" max="64" width="14.125" customWidth="1"/>
+    <col min="65" max="65" width="9.625" customWidth="1"/>
+    <col min="66" max="66" width="17.5" customWidth="1"/>
+    <col min="67" max="67" width="10.75" customWidth="1"/>
+    <col min="68" max="68" width="11.875" customWidth="1"/>
+    <col min="69" max="69" width="13" customWidth="1"/>
+    <col min="70" max="70" width="11.875" customWidth="1"/>
+    <col min="71" max="71" width="15.25" customWidth="1"/>
+    <col min="72" max="72" width="11.875" customWidth="1"/>
+    <col min="73" max="73" width="13" customWidth="1"/>
+    <col min="74" max="74" width="17.5" customWidth="1"/>
+    <col min="75" max="75" width="20.875" customWidth="1"/>
+    <col min="76" max="76" width="16.5" customWidth="1"/>
+    <col min="77" max="77" width="13" customWidth="1"/>
+    <col min="78" max="78" width="11.875" customWidth="1"/>
+    <col min="79" max="79" width="10.75" customWidth="1"/>
+    <col min="80" max="80" width="11.875" customWidth="1"/>
+    <col min="81" max="82" width="7.625" customWidth="1"/>
+    <col min="83" max="84" width="17.5" customWidth="1"/>
+    <col min="85" max="85" width="16.5" customWidth="1"/>
+    <col min="86" max="86" width="11.875" customWidth="1"/>
+    <col min="87" max="87" width="14.125" customWidth="1"/>
+    <col min="88" max="88" width="11.875" customWidth="1"/>
+    <col min="89" max="89" width="10.75" customWidth="1"/>
+    <col min="90" max="90" width="11.875" customWidth="1"/>
+    <col min="91" max="91" width="19.75" customWidth="1"/>
+    <col min="92" max="92" width="16.5" customWidth="1"/>
+    <col min="93" max="93" width="23.125" customWidth="1"/>
+    <col min="94" max="94" width="7.625" customWidth="1"/>
+    <col min="95" max="95" width="18.625" customWidth="1"/>
+    <col min="96" max="96" width="10.75" customWidth="1"/>
+    <col min="97" max="97" width="14.125" customWidth="1"/>
+    <col min="98" max="98" width="13" customWidth="1"/>
+    <col min="99" max="99" width="16.5" customWidth="1"/>
+    <col min="100" max="101" width="13" customWidth="1"/>
+    <col min="102" max="102" width="9.625" customWidth="1"/>
+    <col min="103" max="103" width="16.5" customWidth="1"/>
+    <col min="104" max="104" width="14.125" customWidth="1"/>
+    <col min="105" max="105" width="11.875" customWidth="1"/>
+    <col min="106" max="107" width="15.25" customWidth="1"/>
+    <col min="108" max="108" width="9.625" customWidth="1"/>
+    <col min="109" max="109" width="13" customWidth="1"/>
+    <col min="110" max="110" width="9.625" customWidth="1"/>
+    <col min="111" max="111" width="15.25" customWidth="1"/>
+    <col min="112" max="112" width="17.5" customWidth="1"/>
+    <col min="113" max="113" width="9.625" customWidth="1"/>
+    <col min="114" max="114" width="19.75" customWidth="1"/>
+    <col min="115" max="115" width="16.5" customWidth="1"/>
+    <col min="116" max="116" width="20.875" customWidth="1"/>
+    <col min="117" max="117" width="24.25" customWidth="1"/>
+    <col min="118" max="118" width="16.5" customWidth="1"/>
+    <col min="119" max="119" width="17.5" customWidth="1"/>
+    <col min="120" max="120" width="22" customWidth="1"/>
+    <col min="121" max="122" width="20.875" customWidth="1"/>
+    <col min="123" max="123" width="19.75" customWidth="1"/>
+    <col min="124" max="124" width="17.5" customWidth="1"/>
+    <col min="125" max="125" width="20.875" customWidth="1"/>
+    <col min="126" max="126" width="18.625" customWidth="1"/>
+    <col min="127" max="127" width="8.625" customWidth="1"/>
+    <col min="128" max="128" width="15.25" customWidth="1"/>
+    <col min="129" max="129" width="13" customWidth="1"/>
+    <col min="130" max="130" width="14.125" customWidth="1"/>
+    <col min="131" max="131" width="10.75" customWidth="1"/>
+    <col min="132" max="132" width="11.875" customWidth="1"/>
+    <col min="133" max="133" width="15.25" customWidth="1"/>
+    <col min="134" max="134" width="16.5" customWidth="1"/>
+    <col min="135" max="135" width="14.125" customWidth="1"/>
+    <col min="136" max="136" width="17.5" customWidth="1"/>
+    <col min="137" max="137" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138">
-      <c r="A1" t="s">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3627,1130 +3055,1138 @@
       <c r="E1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="EI1" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
-    <row r="2" spans="1:137">
-      <c r="A2">
-        <v>30200281</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="DK2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EB2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EF2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>11721200</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="V3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>117212000</v>
-      </c>
-      <c r="N2">
-        <v>190187</v>
-      </c>
-      <c r="O2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>99</v>
-      </c>
-      <c r="R2" t="s">
-        <v>99</v>
-      </c>
-      <c r="S2">
-        <v>99990</v>
-      </c>
-      <c r="T2">
-        <v>77011</v>
-      </c>
-      <c r="U2" t="s">
-        <v>239</v>
-      </c>
-      <c r="V2">
-        <v>500000</v>
-      </c>
-      <c r="W2">
-        <v>101.16405479</v>
-      </c>
-      <c r="X2">
-        <v>20220321000000</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>8316784.83</v>
-      </c>
-      <c r="AB2">
-        <v>500000</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="AT3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR2">
-        <v>11721200</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT2">
-        <v>99998</v>
-      </c>
-      <c r="AU2">
-        <v>1</v>
-      </c>
-      <c r="AV2">
-        <v>1</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>99999</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>1</v>
-      </c>
-      <c r="BF2">
-        <v>-1</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="BP3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CR3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BP2">
-        <v>-1</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>-1</v>
-      </c>
-      <c r="BV2">
-        <v>-1</v>
-      </c>
-      <c r="BW2">
-        <v>1</v>
-      </c>
-      <c r="BX2">
-        <v>1</v>
-      </c>
-      <c r="BY2">
-        <v>1</v>
-      </c>
-      <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>6870237</v>
-      </c>
-      <c r="CJ2">
-        <v>-1</v>
-      </c>
-      <c r="CK2">
-        <v>-1</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CR2" t="s">
+      <c r="CT3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="CT2" t="s">
-        <v>243</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>241</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DD2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DF2">
-        <v>0</v>
-      </c>
-      <c r="DG2">
-        <v>-1</v>
-      </c>
-      <c r="DJ2">
-        <v>1</v>
-      </c>
-      <c r="DK2">
-        <v>0</v>
-      </c>
-      <c r="DL2">
-        <v>0</v>
-      </c>
-      <c r="DM2">
-        <v>0</v>
-      </c>
-      <c r="DN2">
-        <v>0</v>
-      </c>
-      <c r="DO2">
-        <v>0</v>
-      </c>
-      <c r="DP2">
-        <v>0</v>
-      </c>
-      <c r="DQ2">
-        <v>0</v>
-      </c>
-      <c r="DR2">
-        <v>0</v>
-      </c>
-      <c r="DS2">
-        <v>0</v>
-      </c>
-      <c r="DT2">
-        <v>0</v>
-      </c>
-      <c r="DU2">
-        <v>0</v>
-      </c>
-      <c r="DV2">
-        <v>0</v>
-      </c>
-      <c r="DW2">
-        <v>0</v>
-      </c>
-      <c r="DX2">
-        <v>0</v>
-      </c>
-      <c r="DY2">
-        <v>0</v>
-      </c>
-      <c r="EB2">
-        <v>0</v>
-      </c>
-      <c r="ED2">
-        <v>0</v>
-      </c>
-      <c r="EE2">
-        <v>0</v>
-      </c>
-      <c r="EF2">
-        <v>0</v>
-      </c>
-      <c r="EG2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:137">
-      <c r="A3">
-        <v>30200282</v>
-      </c>
-      <c r="B3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>11725200</v>
-      </c>
-      <c r="K3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>117252000</v>
-      </c>
-      <c r="N3">
-        <v>190187</v>
-      </c>
-      <c r="O3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R3" t="s">
-        <v>99</v>
-      </c>
-      <c r="S3">
-        <v>99990</v>
-      </c>
-      <c r="T3">
-        <v>77011</v>
-      </c>
-      <c r="U3" t="s">
-        <v>239</v>
-      </c>
-      <c r="V3">
-        <v>500000</v>
-      </c>
-      <c r="W3">
-        <v>101.16405479</v>
-      </c>
-      <c r="X3">
-        <v>20220321000000</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>8267194.83</v>
-      </c>
-      <c r="AB3">
-        <v>500000</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="CV3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DA3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR3">
-        <v>11725200</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT3">
-        <v>99998</v>
-      </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>99999</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>1</v>
-      </c>
-      <c r="BF3">
-        <v>-1</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>241</v>
-      </c>
-      <c r="BP3">
-        <v>-1</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>-1</v>
-      </c>
-      <c r="BV3">
-        <v>-1</v>
-      </c>
-      <c r="BW3">
-        <v>1</v>
-      </c>
-      <c r="BX3">
-        <v>1</v>
-      </c>
-      <c r="BY3">
-        <v>1</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>6870238</v>
-      </c>
-      <c r="CJ3">
-        <v>-1</v>
-      </c>
-      <c r="CK3">
-        <v>-1</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>242</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>243</v>
-      </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>241</v>
-      </c>
-      <c r="DC3">
-        <v>0</v>
-      </c>
-      <c r="DD3">
-        <v>0</v>
-      </c>
-      <c r="DE3">
-        <v>0</v>
-      </c>
-      <c r="DF3">
-        <v>0</v>
-      </c>
-      <c r="DG3">
-        <v>-1</v>
-      </c>
-      <c r="DJ3">
-        <v>1</v>
-      </c>
-      <c r="DK3">
-        <v>0</v>
-      </c>
-      <c r="DL3">
-        <v>0</v>
-      </c>
-      <c r="DM3">
-        <v>0</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>0</v>
-      </c>
-      <c r="DP3">
-        <v>0</v>
-      </c>
-      <c r="DQ3">
-        <v>0</v>
-      </c>
-      <c r="DR3">
-        <v>0</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
-        <v>0</v>
-      </c>
-      <c r="DU3">
-        <v>0</v>
-      </c>
-      <c r="DV3">
-        <v>0</v>
-      </c>
-      <c r="DW3">
-        <v>0</v>
-      </c>
-      <c r="DX3">
-        <v>0</v>
-      </c>
-      <c r="DY3">
-        <v>0</v>
-      </c>
-      <c r="EB3">
-        <v>0</v>
-      </c>
-      <c r="ED3">
-        <v>0</v>
-      </c>
-      <c r="EE3">
-        <v>0</v>
-      </c>
-      <c r="EF3">
-        <v>0</v>
-      </c>
-      <c r="EG3">
-        <v>0</v>
+      <c r="DC3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DG3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EB3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="ED3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EF3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="EI3" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.1111111111111" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="15" width="10.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="15" width="10.75" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="5.66666666666667" customWidth="1"/>
+    <col min="17" max="17" width="5.625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.7777777777778" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
-    <col min="22" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="11.8888888888889" customWidth="1"/>
-    <col min="26" max="27" width="9.66666666666667" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="7.625" customWidth="1"/>
+    <col min="22" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="11.875" customWidth="1"/>
+    <col min="26" max="27" width="9.625" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="11.8888888888889" customWidth="1"/>
-    <col min="31" max="31" width="14.1111111111111" customWidth="1"/>
-    <col min="32" max="32" width="7.66666666666667" customWidth="1"/>
-    <col min="33" max="33" width="9.66666666666667" customWidth="1"/>
+    <col min="29" max="29" width="8.625" customWidth="1"/>
+    <col min="30" max="30" width="11.875" customWidth="1"/>
+    <col min="31" max="31" width="14.125" customWidth="1"/>
+    <col min="32" max="32" width="7.625" customWidth="1"/>
+    <col min="33" max="33" width="9.625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.1111111111111" customWidth="1"/>
-    <col min="36" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="11.8888888888889" customWidth="1"/>
-    <col min="41" max="41" width="16.4444444444444" customWidth="1"/>
-    <col min="42" max="43" width="11.8888888888889" customWidth="1"/>
-    <col min="44" max="44" width="14.1111111111111" customWidth="1"/>
-    <col min="45" max="45" width="11.8888888888889" customWidth="1"/>
-    <col min="46" max="46" width="14.1111111111111" customWidth="1"/>
-    <col min="47" max="47" width="8.66666666666667" customWidth="1"/>
-    <col min="48" max="48" width="11.8888888888889" customWidth="1"/>
-    <col min="49" max="49" width="5.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="6.66666666666667" customWidth="1"/>
-    <col min="51" max="52" width="14.1111111111111" customWidth="1"/>
-    <col min="53" max="53" width="8.66666666666667" customWidth="1"/>
-    <col min="54" max="54" width="15.2222222222222" customWidth="1"/>
-    <col min="55" max="55" width="14.1111111111111" customWidth="1"/>
-    <col min="56" max="56" width="20.8888888888889" customWidth="1"/>
+    <col min="35" max="35" width="14.125" customWidth="1"/>
+    <col min="36" max="39" width="10.75" customWidth="1"/>
+    <col min="40" max="40" width="11.875" customWidth="1"/>
+    <col min="41" max="41" width="16.5" customWidth="1"/>
+    <col min="42" max="43" width="11.875" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="11.875" customWidth="1"/>
+    <col min="46" max="46" width="14.125" customWidth="1"/>
+    <col min="47" max="47" width="8.625" customWidth="1"/>
+    <col min="48" max="48" width="11.875" customWidth="1"/>
+    <col min="49" max="49" width="5.625" customWidth="1"/>
+    <col min="50" max="50" width="6.625" customWidth="1"/>
+    <col min="51" max="52" width="14.125" customWidth="1"/>
+    <col min="53" max="53" width="8.625" customWidth="1"/>
+    <col min="54" max="54" width="15.25" customWidth="1"/>
+    <col min="55" max="55" width="14.125" customWidth="1"/>
+    <col min="56" max="56" width="20.875" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.1111111111111" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="10.7777777777778" customWidth="1"/>
-    <col min="61" max="61" width="5.66666666666667" customWidth="1"/>
-    <col min="62" max="62" width="10.7777777777778" customWidth="1"/>
-    <col min="63" max="63" width="16.4444444444444" customWidth="1"/>
-    <col min="64" max="64" width="11.8888888888889" customWidth="1"/>
+    <col min="58" max="58" width="14.125" customWidth="1"/>
+    <col min="59" max="59" width="15.25" customWidth="1"/>
+    <col min="60" max="60" width="10.75" customWidth="1"/>
+    <col min="61" max="61" width="5.625" customWidth="1"/>
+    <col min="62" max="62" width="10.75" customWidth="1"/>
+    <col min="63" max="63" width="16.5" customWidth="1"/>
+    <col min="64" max="64" width="11.875" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="10.7777777777778" customWidth="1"/>
-    <col min="67" max="68" width="11.8888888888889" customWidth="1"/>
+    <col min="66" max="66" width="10.75" customWidth="1"/>
+    <col min="67" max="68" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:68">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -4776,34 +4212,34 @@
         <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>123</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>159</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>111</v>
@@ -4818,34 +4254,34 @@
         <v>5</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>236</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>129</v>
@@ -4863,19 +4299,19 @@
         <v>131</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>231</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>141</v>
@@ -4887,22 +4323,22 @@
         <v>188</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>69</v>
@@ -4917,7 +4353,7 @@
         <v>234</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>228</v>
@@ -4926,39 +4362,39 @@
         <v>229</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>167</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="BP1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:68">
-      <c r="A2" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>109</v>
@@ -4973,7 +4409,7 @@
         <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>96</v>
@@ -4994,13 +4430,13 @@
         <v>92</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>92</v>
@@ -5015,13 +4451,13 @@
         <v>92</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>101</v>
@@ -5051,7 +4487,7 @@
         <v>96</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>100</v>
@@ -5060,14 +4496,14 @@
         <v>92</v>
       </c>
       <c r="AX2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="BA2" s="1" t="s">
         <v>96</v>
       </c>
@@ -5078,10 +4514,10 @@
         <v>92</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>92</v>
@@ -5096,9 +4532,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:68">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>109</v>
@@ -5113,7 +4549,7 @@
         <v>90</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>96</v>
@@ -5134,13 +4570,13 @@
         <v>92</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>92</v>
@@ -5155,13 +4591,13 @@
         <v>92</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>101</v>
@@ -5191,7 +4627,7 @@
         <v>96</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>100</v>
@@ -5200,14 +4636,14 @@
         <v>92</v>
       </c>
       <c r="AX3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AY3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="BA3" s="1" t="s">
         <v>96</v>
       </c>
@@ -5218,10 +4654,10 @@
         <v>92</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BI3" s="1" t="s">
         <v>92</v>
@@ -5236,18 +4672,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/用例数据/深A/债券分销登记/测试结果.xlsx
+++ b/用例数据/深A/债券分销登记/测试结果.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="306">
   <si>
     <t>EXCHID</t>
   </si>
@@ -935,6 +935,14 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCB1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2923,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="CC11" sqref="CC11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3494,6 +3502,9 @@
       <c r="F2" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>87</v>
       </c>
@@ -3819,6 +3830,9 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>106</v>

--- a/用例数据/深A/债券分销登记/测试结果.xlsx
+++ b/用例数据/深A/债券分销登记/测试结果.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="304">
   <si>
     <t>EXCHID</t>
   </si>
@@ -928,13 +928,21 @@
   </si>
   <si>
     <t>000006907637</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,6 +952,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -970,10 +986,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2906,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="CC11" sqref="CC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3660,8 +3677,8 @@
       <c r="BY2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BZ2" s="1" t="s">
-        <v>92</v>
+      <c r="BZ2" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>96</v>
@@ -3986,8 +4003,8 @@
       <c r="BY3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BZ3" s="1" t="s">
-        <v>92</v>
+      <c r="BZ3" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>96</v>

--- a/用例数据/深A/债券分销登记/测试结果.xlsx
+++ b/用例数据/深A/债券分销登记/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="12216" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="307">
   <si>
     <t>EXCHID</t>
   </si>
@@ -901,9 +901,6 @@
   </si>
   <si>
     <t>1000786743.280</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
   <si>
     <t>99998</t>
@@ -943,6 +940,14 @@
   </si>
   <si>
     <t>CCB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1309,9 +1314,9 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1576,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -1831,7 +1836,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -2091,22 +2096,22 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2122,81 +2127,81 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="14.125" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
-    <col min="17" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="14.125" customWidth="1"/>
-    <col min="20" max="20" width="17.5" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="16.5" customWidth="1"/>
-    <col min="23" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="8.625" customWidth="1"/>
-    <col min="25" max="25" width="10.75" customWidth="1"/>
-    <col min="26" max="26" width="7.625" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="9.625" customWidth="1"/>
-    <col min="29" max="29" width="15.25" customWidth="1"/>
-    <col min="30" max="30" width="10.75" customWidth="1"/>
-    <col min="31" max="31" width="15.25" customWidth="1"/>
+    <col min="12" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
+    <col min="17" max="18" width="15.21875" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.77734375" customWidth="1"/>
+    <col min="26" max="26" width="7.6640625" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" customWidth="1"/>
+    <col min="28" max="28" width="9.6640625" customWidth="1"/>
+    <col min="29" max="29" width="15.21875" customWidth="1"/>
+    <col min="30" max="30" width="10.77734375" customWidth="1"/>
+    <col min="31" max="31" width="15.21875" customWidth="1"/>
     <col min="32" max="32" width="22" customWidth="1"/>
-    <col min="33" max="33" width="11.875" customWidth="1"/>
-    <col min="34" max="34" width="20.875" customWidth="1"/>
-    <col min="35" max="35" width="24.25" customWidth="1"/>
-    <col min="36" max="36" width="23.125" customWidth="1"/>
+    <col min="33" max="33" width="11.88671875" customWidth="1"/>
+    <col min="34" max="34" width="20.88671875" customWidth="1"/>
+    <col min="35" max="35" width="24.21875" customWidth="1"/>
+    <col min="36" max="36" width="23.109375" customWidth="1"/>
     <col min="37" max="38" width="13" customWidth="1"/>
-    <col min="39" max="40" width="14.125" customWidth="1"/>
-    <col min="41" max="42" width="15.25" customWidth="1"/>
+    <col min="39" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="42" width="15.21875" customWidth="1"/>
     <col min="43" max="44" width="13" customWidth="1"/>
-    <col min="45" max="45" width="14.125" customWidth="1"/>
-    <col min="46" max="46" width="16.5" customWidth="1"/>
-    <col min="47" max="47" width="23.125" customWidth="1"/>
-    <col min="48" max="48" width="19.75" customWidth="1"/>
-    <col min="49" max="49" width="23.125" customWidth="1"/>
-    <col min="50" max="50" width="15.25" customWidth="1"/>
-    <col min="51" max="51" width="18.625" customWidth="1"/>
-    <col min="52" max="52" width="17.5" customWidth="1"/>
-    <col min="53" max="54" width="16.5" customWidth="1"/>
-    <col min="55" max="56" width="17.5" customWidth="1"/>
-    <col min="57" max="57" width="16.5" customWidth="1"/>
-    <col min="58" max="58" width="17.5" customWidth="1"/>
-    <col min="59" max="59" width="18.625" customWidth="1"/>
-    <col min="60" max="60" width="25.5" customWidth="1"/>
-    <col min="61" max="61" width="27.625" customWidth="1"/>
-    <col min="62" max="62" width="20.875" customWidth="1"/>
-    <col min="63" max="63" width="16.5" customWidth="1"/>
-    <col min="64" max="64" width="23.125" customWidth="1"/>
-    <col min="65" max="65" width="9.625" customWidth="1"/>
-    <col min="66" max="66" width="23.125" customWidth="1"/>
-    <col min="67" max="67" width="18.625" customWidth="1"/>
-    <col min="68" max="68" width="24.25" customWidth="1"/>
-    <col min="69" max="69" width="19.75" customWidth="1"/>
-    <col min="70" max="70" width="15.25" customWidth="1"/>
-    <col min="71" max="71" width="16.5" customWidth="1"/>
-    <col min="72" max="72" width="18.625" customWidth="1"/>
-    <col min="73" max="73" width="19.75" customWidth="1"/>
-    <col min="74" max="74" width="26.5" customWidth="1"/>
-    <col min="75" max="75" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="14.109375" customWidth="1"/>
+    <col min="46" max="46" width="16.44140625" customWidth="1"/>
+    <col min="47" max="47" width="23.109375" customWidth="1"/>
+    <col min="48" max="48" width="19.77734375" customWidth="1"/>
+    <col min="49" max="49" width="23.109375" customWidth="1"/>
+    <col min="50" max="50" width="15.21875" customWidth="1"/>
+    <col min="51" max="51" width="18.6640625" customWidth="1"/>
+    <col min="52" max="52" width="17.44140625" customWidth="1"/>
+    <col min="53" max="54" width="16.44140625" customWidth="1"/>
+    <col min="55" max="56" width="17.44140625" customWidth="1"/>
+    <col min="57" max="57" width="16.44140625" customWidth="1"/>
+    <col min="58" max="58" width="17.44140625" customWidth="1"/>
+    <col min="59" max="59" width="18.6640625" customWidth="1"/>
+    <col min="60" max="60" width="25.44140625" customWidth="1"/>
+    <col min="61" max="61" width="27.6640625" customWidth="1"/>
+    <col min="62" max="62" width="20.88671875" customWidth="1"/>
+    <col min="63" max="63" width="16.44140625" customWidth="1"/>
+    <col min="64" max="64" width="23.109375" customWidth="1"/>
+    <col min="65" max="65" width="9.6640625" customWidth="1"/>
+    <col min="66" max="66" width="23.109375" customWidth="1"/>
+    <col min="67" max="67" width="18.6640625" customWidth="1"/>
+    <col min="68" max="68" width="24.21875" customWidth="1"/>
+    <col min="69" max="69" width="19.77734375" customWidth="1"/>
+    <col min="70" max="70" width="15.21875" customWidth="1"/>
+    <col min="71" max="71" width="16.44140625" customWidth="1"/>
+    <col min="72" max="72" width="18.6640625" customWidth="1"/>
+    <col min="73" max="73" width="19.77734375" customWidth="1"/>
+    <col min="74" max="74" width="26.44140625" customWidth="1"/>
+    <col min="75" max="75" width="14.109375" customWidth="1"/>
     <col min="76" max="76" width="13" customWidth="1"/>
     <col min="77" max="77" width="22" customWidth="1"/>
-    <col min="78" max="78" width="17.5" customWidth="1"/>
-    <col min="79" max="79" width="20.875" customWidth="1"/>
+    <col min="78" max="78" width="17.44140625" customWidth="1"/>
+    <col min="79" max="79" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -2435,7 +2440,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
@@ -2674,7 +2679,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>109</v>
       </c>
@@ -2913,14 +2918,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2931,140 +2936,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AX3" sqref="AX3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="4" width="16.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="7.625" customWidth="1"/>
-    <col min="14" max="14" width="9.625" customWidth="1"/>
-    <col min="15" max="15" width="8.625" customWidth="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="17" width="8.625" customWidth="1"/>
-    <col min="18" max="18" width="6.625" customWidth="1"/>
-    <col min="19" max="19" width="7.625" customWidth="1"/>
-    <col min="20" max="20" width="10.75" customWidth="1"/>
-    <col min="21" max="21" width="9.625" customWidth="1"/>
-    <col min="22" max="23" width="12.875" customWidth="1"/>
-    <col min="24" max="24" width="14.125" customWidth="1"/>
-    <col min="25" max="25" width="9.625" customWidth="1"/>
-    <col min="26" max="26" width="11.75" customWidth="1"/>
-    <col min="27" max="27" width="8.625" customWidth="1"/>
-    <col min="28" max="28" width="9.625" customWidth="1"/>
-    <col min="29" max="29" width="23.125" customWidth="1"/>
-    <col min="30" max="30" width="10.75" customWidth="1"/>
-    <col min="31" max="31" width="15.25" customWidth="1"/>
-    <col min="32" max="33" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" customWidth="1"/>
+    <col min="20" max="20" width="10.77734375" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" customWidth="1"/>
+    <col min="22" max="23" width="12.88671875" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" customWidth="1"/>
+    <col min="25" max="25" width="9.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" customWidth="1"/>
+    <col min="28" max="28" width="9.6640625" customWidth="1"/>
+    <col min="29" max="29" width="23.109375" customWidth="1"/>
+    <col min="30" max="30" width="10.77734375" customWidth="1"/>
+    <col min="31" max="31" width="15.21875" customWidth="1"/>
+    <col min="32" max="33" width="14.109375" customWidth="1"/>
     <col min="34" max="35" width="13" customWidth="1"/>
-    <col min="36" max="36" width="9.625" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" customWidth="1"/>
     <col min="37" max="37" width="13" customWidth="1"/>
-    <col min="38" max="38" width="10.75" customWidth="1"/>
-    <col min="39" max="39" width="14.125" customWidth="1"/>
-    <col min="40" max="40" width="11.875" customWidth="1"/>
-    <col min="41" max="43" width="9.625" customWidth="1"/>
-    <col min="44" max="44" width="14.125" customWidth="1"/>
-    <col min="45" max="45" width="9.625" customWidth="1"/>
+    <col min="38" max="38" width="10.77734375" customWidth="1"/>
+    <col min="39" max="39" width="14.109375" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" customWidth="1"/>
+    <col min="41" max="43" width="9.6640625" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="9.6640625" customWidth="1"/>
     <col min="46" max="46" width="13" customWidth="1"/>
-    <col min="47" max="47" width="14.125" customWidth="1"/>
-    <col min="48" max="48" width="8.625" customWidth="1"/>
-    <col min="49" max="49" width="17.5" customWidth="1"/>
-    <col min="50" max="50" width="11.875" customWidth="1"/>
-    <col min="51" max="51" width="8.625" customWidth="1"/>
-    <col min="52" max="52" width="9.625" customWidth="1"/>
+    <col min="47" max="47" width="14.109375" customWidth="1"/>
+    <col min="48" max="48" width="8.6640625" customWidth="1"/>
+    <col min="49" max="49" width="17.44140625" customWidth="1"/>
+    <col min="50" max="50" width="11.88671875" customWidth="1"/>
+    <col min="51" max="51" width="8.6640625" customWidth="1"/>
+    <col min="52" max="52" width="9.6640625" customWidth="1"/>
     <col min="53" max="53" width="13" customWidth="1"/>
-    <col min="54" max="54" width="16.5" customWidth="1"/>
+    <col min="54" max="54" width="16.44140625" customWidth="1"/>
     <col min="55" max="56" width="13" customWidth="1"/>
-    <col min="57" max="57" width="16.5" customWidth="1"/>
-    <col min="58" max="58" width="15.25" customWidth="1"/>
-    <col min="59" max="59" width="5.625" customWidth="1"/>
-    <col min="60" max="60" width="17.5" customWidth="1"/>
-    <col min="61" max="61" width="14.125" customWidth="1"/>
-    <col min="62" max="62" width="11.875" customWidth="1"/>
-    <col min="63" max="63" width="8.625" customWidth="1"/>
-    <col min="64" max="64" width="14.125" customWidth="1"/>
-    <col min="65" max="65" width="9.625" customWidth="1"/>
-    <col min="66" max="66" width="17.5" customWidth="1"/>
-    <col min="67" max="67" width="10.75" customWidth="1"/>
-    <col min="68" max="68" width="11.875" customWidth="1"/>
+    <col min="57" max="57" width="16.44140625" customWidth="1"/>
+    <col min="58" max="58" width="15.21875" customWidth="1"/>
+    <col min="59" max="59" width="5.6640625" customWidth="1"/>
+    <col min="60" max="60" width="17.44140625" customWidth="1"/>
+    <col min="61" max="61" width="14.109375" customWidth="1"/>
+    <col min="62" max="62" width="11.88671875" customWidth="1"/>
+    <col min="63" max="63" width="8.6640625" customWidth="1"/>
+    <col min="64" max="64" width="14.109375" customWidth="1"/>
+    <col min="65" max="65" width="9.6640625" customWidth="1"/>
+    <col min="66" max="66" width="17.44140625" customWidth="1"/>
+    <col min="67" max="67" width="10.77734375" customWidth="1"/>
+    <col min="68" max="68" width="11.88671875" customWidth="1"/>
     <col min="69" max="69" width="13" customWidth="1"/>
-    <col min="70" max="70" width="11.875" customWidth="1"/>
-    <col min="71" max="71" width="15.25" customWidth="1"/>
-    <col min="72" max="72" width="11.875" customWidth="1"/>
+    <col min="70" max="70" width="11.88671875" customWidth="1"/>
+    <col min="71" max="71" width="15.21875" customWidth="1"/>
+    <col min="72" max="72" width="11.88671875" customWidth="1"/>
     <col min="73" max="73" width="13" customWidth="1"/>
-    <col min="74" max="74" width="17.5" customWidth="1"/>
-    <col min="75" max="75" width="20.875" customWidth="1"/>
-    <col min="76" max="76" width="16.5" customWidth="1"/>
+    <col min="74" max="74" width="17.44140625" customWidth="1"/>
+    <col min="75" max="75" width="20.88671875" customWidth="1"/>
+    <col min="76" max="76" width="16.44140625" customWidth="1"/>
     <col min="77" max="77" width="13" customWidth="1"/>
-    <col min="78" max="78" width="11.875" customWidth="1"/>
-    <col min="79" max="79" width="10.75" customWidth="1"/>
-    <col min="80" max="80" width="11.875" customWidth="1"/>
-    <col min="81" max="82" width="7.625" customWidth="1"/>
-    <col min="83" max="84" width="17.5" customWidth="1"/>
-    <col min="85" max="85" width="16.5" customWidth="1"/>
-    <col min="86" max="86" width="11.875" customWidth="1"/>
-    <col min="87" max="87" width="14.125" customWidth="1"/>
-    <col min="88" max="88" width="11.875" customWidth="1"/>
-    <col min="89" max="89" width="10.75" customWidth="1"/>
-    <col min="90" max="90" width="11.875" customWidth="1"/>
-    <col min="91" max="91" width="19.75" customWidth="1"/>
-    <col min="92" max="92" width="16.5" customWidth="1"/>
-    <col min="93" max="93" width="23.125" customWidth="1"/>
-    <col min="94" max="94" width="7.625" customWidth="1"/>
-    <col min="95" max="95" width="18.625" customWidth="1"/>
-    <col min="96" max="96" width="10.75" customWidth="1"/>
-    <col min="97" max="97" width="14.125" customWidth="1"/>
+    <col min="78" max="78" width="11.88671875" customWidth="1"/>
+    <col min="79" max="79" width="10.77734375" customWidth="1"/>
+    <col min="80" max="80" width="11.88671875" customWidth="1"/>
+    <col min="81" max="82" width="7.6640625" customWidth="1"/>
+    <col min="83" max="84" width="17.44140625" customWidth="1"/>
+    <col min="85" max="85" width="16.44140625" customWidth="1"/>
+    <col min="86" max="86" width="11.88671875" customWidth="1"/>
+    <col min="87" max="87" width="14.109375" customWidth="1"/>
+    <col min="88" max="88" width="11.88671875" customWidth="1"/>
+    <col min="89" max="89" width="10.77734375" customWidth="1"/>
+    <col min="90" max="90" width="11.88671875" customWidth="1"/>
+    <col min="91" max="91" width="19.77734375" customWidth="1"/>
+    <col min="92" max="92" width="16.44140625" customWidth="1"/>
+    <col min="93" max="93" width="23.109375" customWidth="1"/>
+    <col min="94" max="94" width="7.6640625" customWidth="1"/>
+    <col min="95" max="95" width="18.6640625" customWidth="1"/>
+    <col min="96" max="96" width="10.77734375" customWidth="1"/>
+    <col min="97" max="97" width="14.109375" customWidth="1"/>
     <col min="98" max="98" width="13" customWidth="1"/>
-    <col min="99" max="99" width="16.5" customWidth="1"/>
+    <col min="99" max="99" width="16.44140625" customWidth="1"/>
     <col min="100" max="101" width="13" customWidth="1"/>
-    <col min="102" max="102" width="9.625" customWidth="1"/>
-    <col min="103" max="103" width="16.5" customWidth="1"/>
-    <col min="104" max="104" width="14.125" customWidth="1"/>
-    <col min="105" max="105" width="11.875" customWidth="1"/>
-    <col min="106" max="107" width="15.25" customWidth="1"/>
-    <col min="108" max="108" width="9.625" customWidth="1"/>
+    <col min="102" max="102" width="9.6640625" customWidth="1"/>
+    <col min="103" max="103" width="16.44140625" customWidth="1"/>
+    <col min="104" max="104" width="14.109375" customWidth="1"/>
+    <col min="105" max="105" width="11.88671875" customWidth="1"/>
+    <col min="106" max="107" width="15.21875" customWidth="1"/>
+    <col min="108" max="108" width="9.6640625" customWidth="1"/>
     <col min="109" max="109" width="13" customWidth="1"/>
-    <col min="110" max="110" width="9.625" customWidth="1"/>
-    <col min="111" max="111" width="15.25" customWidth="1"/>
-    <col min="112" max="112" width="17.5" customWidth="1"/>
-    <col min="113" max="113" width="9.625" customWidth="1"/>
-    <col min="114" max="114" width="19.75" customWidth="1"/>
-    <col min="115" max="115" width="16.5" customWidth="1"/>
-    <col min="116" max="116" width="20.875" customWidth="1"/>
-    <col min="117" max="117" width="24.25" customWidth="1"/>
-    <col min="118" max="118" width="16.5" customWidth="1"/>
-    <col min="119" max="119" width="17.5" customWidth="1"/>
+    <col min="110" max="110" width="9.6640625" customWidth="1"/>
+    <col min="111" max="111" width="15.21875" customWidth="1"/>
+    <col min="112" max="112" width="17.44140625" customWidth="1"/>
+    <col min="113" max="113" width="9.6640625" customWidth="1"/>
+    <col min="114" max="114" width="19.77734375" customWidth="1"/>
+    <col min="115" max="115" width="16.44140625" customWidth="1"/>
+    <col min="116" max="116" width="20.88671875" customWidth="1"/>
+    <col min="117" max="117" width="24.21875" customWidth="1"/>
+    <col min="118" max="118" width="16.44140625" customWidth="1"/>
+    <col min="119" max="119" width="17.44140625" customWidth="1"/>
     <col min="120" max="120" width="22" customWidth="1"/>
-    <col min="121" max="122" width="20.875" customWidth="1"/>
-    <col min="123" max="123" width="19.75" customWidth="1"/>
-    <col min="124" max="124" width="17.5" customWidth="1"/>
-    <col min="125" max="125" width="20.875" customWidth="1"/>
-    <col min="126" max="126" width="18.625" customWidth="1"/>
-    <col min="127" max="127" width="8.625" customWidth="1"/>
-    <col min="128" max="128" width="15.25" customWidth="1"/>
+    <col min="121" max="122" width="20.88671875" customWidth="1"/>
+    <col min="123" max="123" width="19.77734375" customWidth="1"/>
+    <col min="124" max="124" width="17.44140625" customWidth="1"/>
+    <col min="125" max="125" width="20.88671875" customWidth="1"/>
+    <col min="126" max="126" width="18.6640625" customWidth="1"/>
+    <col min="127" max="127" width="8.6640625" customWidth="1"/>
+    <col min="128" max="128" width="15.21875" customWidth="1"/>
     <col min="129" max="129" width="13" customWidth="1"/>
-    <col min="130" max="130" width="14.125" customWidth="1"/>
-    <col min="131" max="131" width="10.75" customWidth="1"/>
-    <col min="132" max="132" width="11.875" customWidth="1"/>
-    <col min="133" max="133" width="15.25" customWidth="1"/>
-    <col min="134" max="134" width="16.5" customWidth="1"/>
-    <col min="135" max="135" width="14.125" customWidth="1"/>
-    <col min="136" max="136" width="17.5" customWidth="1"/>
-    <col min="137" max="137" width="14.125" customWidth="1"/>
+    <col min="130" max="130" width="14.109375" customWidth="1"/>
+    <col min="131" max="131" width="10.77734375" customWidth="1"/>
+    <col min="132" max="132" width="11.88671875" customWidth="1"/>
+    <col min="133" max="133" width="15.21875" customWidth="1"/>
+    <col min="134" max="134" width="16.44140625" customWidth="1"/>
+    <col min="135" max="135" width="14.109375" customWidth="1"/>
+    <col min="136" max="136" width="17.44140625" customWidth="1"/>
+    <col min="137" max="137" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
@@ -3483,7 +3488,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>288</v>
       </c>
@@ -3503,7 +3508,7 @@
         <v>86</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>87</v>
@@ -3605,7 +3610,7 @@
         <v>239</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>87</v>
@@ -3614,13 +3619,13 @@
         <v>89</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>101</v>
@@ -3629,7 +3634,7 @@
         <v>96</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>92</v>
@@ -3647,7 +3652,7 @@
         <v>92</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BJ2" s="1" t="s">
         <v>96</v>
@@ -3689,7 +3694,7 @@
         <v>86</v>
       </c>
       <c r="BZ2" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>96</v>
@@ -3707,7 +3712,7 @@
         <v>92</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>284</v>
@@ -3737,7 +3742,7 @@
         <v>96</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>103</v>
@@ -3758,7 +3763,7 @@
         <v>96</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DO2" s="1" t="s">
         <v>96</v>
@@ -3812,9 +3817,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>237</v>
@@ -3832,7 +3837,7 @@
         <v>86</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>106</v>
@@ -3886,7 +3891,7 @@
         <v>96</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>93</v>
@@ -3934,7 +3939,7 @@
         <v>239</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>106</v>
@@ -3943,13 +3948,13 @@
         <v>89</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>101</v>
@@ -3958,7 +3963,7 @@
         <v>96</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>92</v>
@@ -3976,7 +3981,7 @@
         <v>92</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BJ3" s="1" t="s">
         <v>96</v>
@@ -4018,7 +4023,7 @@
         <v>86</v>
       </c>
       <c r="BZ3" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>96</v>
@@ -4036,7 +4041,7 @@
         <v>92</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>284</v>
@@ -4066,7 +4071,7 @@
         <v>96</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>103</v>
@@ -4087,7 +4092,7 @@
         <v>96</v>
       </c>
       <c r="DN3" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DO3" s="1" t="s">
         <v>96</v>
@@ -4155,69 +4160,69 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="1" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="15" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="15" width="10.77734375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="5.625" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.75" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="7.625" customWidth="1"/>
-    <col min="22" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="10.75" customWidth="1"/>
-    <col min="25" max="25" width="11.875" customWidth="1"/>
-    <col min="26" max="27" width="9.625" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" customWidth="1"/>
+    <col min="26" max="27" width="9.6640625" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.625" customWidth="1"/>
-    <col min="30" max="30" width="11.875" customWidth="1"/>
-    <col min="31" max="31" width="14.125" customWidth="1"/>
-    <col min="32" max="32" width="7.625" customWidth="1"/>
-    <col min="33" max="33" width="9.625" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" customWidth="1"/>
+    <col min="30" max="30" width="11.88671875" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.125" customWidth="1"/>
-    <col min="36" max="39" width="10.75" customWidth="1"/>
-    <col min="40" max="40" width="11.875" customWidth="1"/>
-    <col min="41" max="41" width="16.5" customWidth="1"/>
-    <col min="42" max="43" width="11.875" customWidth="1"/>
-    <col min="44" max="44" width="14.125" customWidth="1"/>
-    <col min="45" max="45" width="11.875" customWidth="1"/>
-    <col min="46" max="46" width="14.125" customWidth="1"/>
-    <col min="47" max="47" width="8.625" customWidth="1"/>
-    <col min="48" max="48" width="11.875" customWidth="1"/>
-    <col min="49" max="49" width="5.625" customWidth="1"/>
-    <col min="50" max="50" width="6.625" customWidth="1"/>
-    <col min="51" max="52" width="14.125" customWidth="1"/>
-    <col min="53" max="53" width="8.625" customWidth="1"/>
-    <col min="54" max="54" width="15.25" customWidth="1"/>
-    <col min="55" max="55" width="14.125" customWidth="1"/>
-    <col min="56" max="56" width="20.875" customWidth="1"/>
+    <col min="35" max="35" width="14.109375" customWidth="1"/>
+    <col min="36" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" customWidth="1"/>
+    <col min="41" max="41" width="16.44140625" customWidth="1"/>
+    <col min="42" max="43" width="11.88671875" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="11.88671875" customWidth="1"/>
+    <col min="46" max="46" width="14.109375" customWidth="1"/>
+    <col min="47" max="47" width="8.6640625" customWidth="1"/>
+    <col min="48" max="48" width="11.88671875" customWidth="1"/>
+    <col min="49" max="49" width="5.6640625" customWidth="1"/>
+    <col min="50" max="50" width="6.6640625" customWidth="1"/>
+    <col min="51" max="52" width="14.109375" customWidth="1"/>
+    <col min="53" max="53" width="8.6640625" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" customWidth="1"/>
+    <col min="55" max="55" width="14.109375" customWidth="1"/>
+    <col min="56" max="56" width="20.88671875" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.125" customWidth="1"/>
-    <col min="59" max="59" width="15.25" customWidth="1"/>
-    <col min="60" max="60" width="10.75" customWidth="1"/>
-    <col min="61" max="61" width="5.625" customWidth="1"/>
-    <col min="62" max="62" width="10.75" customWidth="1"/>
-    <col min="63" max="63" width="16.5" customWidth="1"/>
-    <col min="64" max="64" width="11.875" customWidth="1"/>
+    <col min="58" max="58" width="14.109375" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="10.77734375" customWidth="1"/>
+    <col min="61" max="61" width="5.6640625" customWidth="1"/>
+    <col min="62" max="62" width="10.77734375" customWidth="1"/>
+    <col min="63" max="63" width="16.44140625" customWidth="1"/>
+    <col min="64" max="64" width="11.88671875" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="10.75" customWidth="1"/>
-    <col min="67" max="68" width="11.875" customWidth="1"/>
+    <col min="66" max="66" width="10.77734375" customWidth="1"/>
+    <col min="67" max="68" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
@@ -4423,7 +4428,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>278</v>
       </c>
@@ -4563,7 +4568,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>278</v>
       </c>
@@ -4703,16 +4708,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
